--- a/Babysitter/DOCUMENTAZIONE/Test d'integrazione.xlsx
+++ b/Babysitter/DOCUMENTAZIONE/Test d'integrazione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\Babysitter_Progetto\Babysitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\Babysitter_Progetto\Babysitter\DOCUMENTAZIONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75DB1E3-62F0-4EE4-9CF0-634589337194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B45C7-8C27-4245-B89B-ECFB1E9341AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,14 +1027,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1332,23 +1332,24 @@
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1935,37 +1936,37 @@
       <c r="B38" s="9">
         <v>34</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="2:16" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="9">
         <v>35</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="17"/>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" ht="73" thickBot="1" x14ac:dyDescent="0.4">
@@ -1990,51 +1991,51 @@
       <c r="B41" s="9">
         <v>37</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:16" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="9">
         <v>38</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="2:16" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="9">
         <v>39</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="2:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9">
@@ -2110,37 +2111,37 @@
       <c r="B48" s="9">
         <v>44</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="20"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9">
         <v>45</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="20"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="9">
